--- a/medicine/Enfance/Denis_Côté_(écrivain)/Denis_Côté_(écrivain).xlsx
+++ b/medicine/Enfance/Denis_Côté_(écrivain)/Denis_Côté_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
+          <t>Denis_Côté_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Côté, né le 1er janvier 1954 à Québec (Québec, Canada), est un écrivain québécois spécialisé dans la littérature destinée aux enfants, aux adolescents et aux jeunes adultes. Il a contribué à démocratiser la littérature jeunesse au Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
+          <t>Denis_Côté_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études et carrière
-Né à Québec le 1er janvier 1954, à Québec[1], Denis Côté étudie les lettres au Cégep François-Xavier Garneau. Il étudie ensuite à l'Université Laval, où il obtient une mineure en communication, un baccalauréat spécialisé en études françaises et une maîtrise en littérature québécoise[2].
-En plus de l'écriture, il a exercé divers métiers, dont professeur de français et de littérature au niveau collégial, libraire et chargé de cours en bande dessinée pour la jeunesse à l'UQTR[1],[2],[3].
-Il a rédigé également des critiques, chroniques et articles pour les revues L'Année de la Science-fiction et du fantastique québécois, Nuit Blanche, Lurelu et Livres et auteurs québécois en plus d'écrire des scénarios pour la télévision[1],[2].
-Il est membre de l'Union des écrivaines et des écrivains québécois[1].
-Écriture
-C'est d'abord chez les éditions Paulines qu'il débutera sa carrière de romancier en publiant, en 1983, Hockeyeurs cybernétiques[4]. Il y aborde notamment les thèmes de la détérioration de l’environnement à grande échelle et ses conséquences, de l’industrie du divertissement favorisant l’abêtissement des citoyens, des écarts croissants entre les riches et les pauvres, des démocraties fragilisées, de la manipulation des masses par la publicité et la propagande[4],[5]. Ce premier roman lui vaut, la même année, le Prix du Conseil des arts du Canada, le Prix Boréal et le Grand Prix de la science-fiction et du fantastique québécois[2],[6]. C'est ensuite avec La Courte Échelle qu'il peaufinera son art en sortant une myriade de romans chez eux[7].
-Les univers narratifs (genres littéraires) qu'il explore le plus souvent sont la science-fiction, le fantastique et l'horreur[2]. Vendus à plus d'un demi-million d'exemplaires, ses livres ont connu de nombreuses rééditions et certains ont été traduits en diverses langues[2].
+          <t>Études et carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Québec le 1er janvier 1954, à Québec, Denis Côté étudie les lettres au Cégep François-Xavier Garneau. Il étudie ensuite à l'Université Laval, où il obtient une mineure en communication, un baccalauréat spécialisé en études françaises et une maîtrise en littérature québécoise.
+En plus de l'écriture, il a exercé divers métiers, dont professeur de français et de littérature au niveau collégial, libraire et chargé de cours en bande dessinée pour la jeunesse à l'UQTR.
+Il a rédigé également des critiques, chroniques et articles pour les revues L'Année de la Science-fiction et du fantastique québécois, Nuit Blanche, Lurelu et Livres et auteurs québécois en plus d'écrire des scénarios pour la télévision,.
+Il est membre de l'Union des écrivaines et des écrivains québécois.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
+          <t>Denis_Côté_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Écriture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est d'abord chez les éditions Paulines qu'il débutera sa carrière de romancier en publiant, en 1983, Hockeyeurs cybernétiques. Il y aborde notamment les thèmes de la détérioration de l’environnement à grande échelle et ses conséquences, de l’industrie du divertissement favorisant l’abêtissement des citoyens, des écarts croissants entre les riches et les pauvres, des démocraties fragilisées, de la manipulation des masses par la publicité et la propagande,. Ce premier roman lui vaut, la même année, le Prix du Conseil des arts du Canada, le Prix Boréal et le Grand Prix de la science-fiction et du fantastique québécois,. C'est ensuite avec La Courte Échelle qu'il peaufinera son art en sortant une myriade de romans chez eux.
+Les univers narratifs (genres littéraires) qu'il explore le plus souvent sont la science-fiction, le fantastique et l'horreur. Vendus à plus d'un demi-million d'exemplaires, ses livres ont connu de nombreuses rééditions et certains ont été traduits en diverses langues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denis_Côté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les parallèles célestes, Montréal, Hurtubise-HMH, 1983, 168 p.  (ISBN 2890456005)
 Hockeyeurs cybernétiques, Montréal, Éditions Paulines, 1983, 117 p.  (ISBN 2890399087)
@@ -608,66 +662,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_Côté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denis_C%C3%B4t%C3%A9_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Finaliste au Prix Ville-de-Québec-SILQ, section littérature jeunesse, pour Je suis un monstre[8]
-2017 : Finaliste au Prix Adolecteurs (attribué par les élèves des écoles secondaires du Québec), pour L’enfer de glace[9]
-2015 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Dessine-moi un Martien[10]
-2012 : Finaliste au Prix TD de littérature canadienne pour l'enfance et la jeunesse, pour L'amélanchier[11]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Finaliste au Prix Ville-de-Québec-SILQ, section littérature jeunesse, pour Je suis un monstre
+2017 : Finaliste au Prix Adolecteurs (attribué par les élèves des écoles secondaires du Québec), pour L’enfer de glace
+2015 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Dessine-moi un Martien
+2012 : Finaliste au Prix TD de littérature canadienne pour l'enfance et la jeunesse, pour L'amélanchier
 2010 : Finaliste au Prix des abonnés du Réseau des bibliothèques de la Ville-de-Québec, pour Porthos et la menace aux yeux rouges
 2009 : 5e position au Palmarès Communication-Jeunesse (livres préférés des jeunes), pour L'Oiseau Rouge
 2005 : Finaliste au Prix littéraire de la Ville-de-Québec, pour La machination du Scorpion noir
-2003 : Lauréat du Prix du livre M. Christie, pour L’Empire couleur sang[12]
+2003 : Lauréat du Prix du livre M. Christie, pour L’Empire couleur sang
 2002 : Finaliste au Prix des abonnés des bibliothèques de Québec, pour L’Empire couleur sang
 2001 : Finaliste au Prix du livre de jeunesse de la ville de Lavenalet et du pays d’Olmes (France), pour La machination du Scorpion noir
-2001 : Finaliste au Prix littéraire Hackmatack, pour La machine à rajeunir[13]
+2001 : Finaliste au Prix littéraire Hackmatack, pour La machine à rajeunir
 2000 : Invité d'honneur au Salon du livre de Montréal
 1999 : Membre de la délégation du Québec au Salon du livre de Paris
 1998 : Récipiendaire de la Médaille d'argent du Rayonnement culturel attribuée par la Renaissance Française
 1997 : Lauréat du Prix du rayonnement international du Conseil de la culture de la région de Québec
-1997 : Récipiendaire du Coup de Cœur Communication-Jeunesse (écrivain le plus aimé)[14]
-1995 : Lauréat du Prix du Livre M. Christie, pour Le parc aux sortilèges[15]
-1994 : 1re position du Club de lecture Livromagie, catégorie Farfadets, pour Le parc aux sortilèges[16]
+1997 : Récipiendaire du Coup de Cœur Communication-Jeunesse (écrivain le plus aimé)
+1995 : Lauréat du Prix du Livre M. Christie, pour Le parc aux sortilèges
+1994 : 1re position du Club de lecture Livromagie, catégorie Farfadets, pour Le parc aux sortilèges
 1994 : Finaliste au Prix du Signet d'Or, pour Le parc aux sortilèges
 1992 : Finaliste au Prix du Livre M. Christie, pour Les yeux d'Émeraude
 1992 : Finaliste au Prix Québec-Wallonie-Bruxelles, pour Les yeux d'Émeraude
-1981 : Lauréat du Prix Montréal-Brive, pour l'ensemble de l'œuvre[17]
-1991 : 1re position du Club de lecture Livromagie, catégorie Farfadets, pour La nuit du vampire[18]
+1981 : Lauréat du Prix Montréal-Brive, pour l'ensemble de l'œuvre
+1991 : 1re position du Club de lecture Livromagie, catégorie Farfadets, pour La nuit du vampire
 1991 : Finaliste au Prix du Livre M. Christie, pour La nuit du vampire
 1990 : Finaliste au Prix du Livre M. Christie, pour Le voyage dans le temps
 1989 : Lauréat du Prix d'excellence de la revue Protégez-vous, pour La vie est une bande dessinée
 1989 : Finaliste au Prix littéraire de la ville de Poitiers (France), pour Les prisonniers du zoo
-1989 : Finaliste au Prix Boréal, pour L'idole des Inactifs[19]
+1989 : Finaliste au Prix Boréal, pour L'idole des Inactifs
 1989 : Finaliste au Casper Award, pour L'idole des Inactifs
-1988 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Les prisonniers du zoo[10]
-1987 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Nocturnes pour Jessie[10]
+1988 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Les prisonniers du zoo
+1987 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Nocturnes pour Jessie
 1986 : Finaliste au Prix du Gouverneur général, section littérature jeunesse, pour Les géants de Blizzard
-1984 : Lauréat du Prix Boréal (écrivain de l'année en science-fiction)[20]
-1984 : Lauréat du Grand Prix de la science-fiction et du fantastique québécois, pour Hockeyeurs cybernétiques et Les parallèles célestes[21]
+1984 : Lauréat du Prix Boréal (écrivain de l'année en science-fiction)
+1984 : Lauréat du Grand Prix de la science-fiction et du fantastique québécois, pour Hockeyeurs cybernétiques et Les parallèles célestes
 1983 : Lauréat du Prix du Conseil des arts du Canada, pour Hockeyeurs cybernétiques</t>
         </is>
       </c>
